--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -261,14 +261,17 @@
     <t>WP21110052S00541</t>
   </si>
   <si>
-    <t>0018f5659848</t>
+    <t>0018f5659848/0032000e02</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình GPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,12 +333,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -464,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,8 +637,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,30 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1021,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1108,58 +1102,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1184,23 +1178,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1221,7 @@
       <c r="I6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="39" t="s">
         <v>67</v>
       </c>
       <c r="K6" s="1"/>
@@ -1250,7 +1244,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1282,8 +1276,8 @@
       <c r="I7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="59" t="s">
-        <v>67</v>
+      <c r="J7" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
@@ -1305,7 +1299,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1334,7 +1328,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1357,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1386,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1421,7 +1415,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1450,7 +1444,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1481,7 +1475,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1510,7 +1504,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1533,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1568,7 +1562,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3284,13 +3278,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3302,6 +3289,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3345,43 +3339,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3426,58 +3420,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3502,23 +3496,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3544,7 +3538,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3575,7 +3569,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3604,7 +3598,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3633,7 +3627,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3662,7 +3656,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3691,7 +3685,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3714,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3751,7 +3745,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3780,7 +3774,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3809,7 +3803,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3838,7 +3832,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5069,6 +5063,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5080,13 +5081,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -243,9 +243,6 @@
     <t>ĐM</t>
   </si>
   <si>
-    <t>Tùng</t>
-  </si>
-  <si>
     <t>SIM</t>
   </si>
   <si>
@@ -264,7 +261,7 @@
     <t>0018f5659848/0032000e02</t>
   </si>
   <si>
-    <t>Thiết bị mất cấu hình GPS</t>
+    <t>Thiết bị mất cấu hình GPS, không lên đèn nguồn</t>
   </si>
 </sst>
 </file>
@@ -988,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1055,7 +1052,7 @@
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="4"/>
@@ -1204,19 +1201,21 @@
       <c r="B6" s="54">
         <v>44741</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44743</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>66</v>
@@ -1233,14 +1232,14 @@
       <c r="O6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>70</v>
+      <c r="P6" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
@@ -1259,25 +1258,27 @@
       <c r="B7" s="54">
         <v>44741</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44743</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
@@ -1295,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
@@ -3373,7 +3374,7 @@
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="4"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -234,9 +234,6 @@
     <t>mdvr.vnetgps.com</t>
   </si>
   <si>
-    <t>Thiết bị không nhận sim</t>
-  </si>
-  <si>
     <t>Đổi mới thiết bị</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>WP21110052S00934</t>
   </si>
   <si>
-    <t>0018f56598d4</t>
-  </si>
-  <si>
     <t>WP21110052S00541</t>
   </si>
   <si>
@@ -262,6 +256,18 @@
   </si>
   <si>
     <t>Thiết bị mất cấu hình GPS, không lên đèn nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0018f56598d4/ ID mới : WP21120135S00474  </t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -985,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1058,7 @@
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="4"/>
@@ -1208,29 +1214,29 @@
         <v>65</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" s="39" t="s">
         <v>64</v>
@@ -1239,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
@@ -1265,29 +1271,29 @@
         <v>65</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="37" t="s">
         <v>63</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>64</v>
@@ -1296,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
@@ -2022,7 +2028,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2214,7 +2220,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3374,7 +3380,7 @@
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="4"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_Etuka.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -252,9 +252,6 @@
     <t>WP21110052S00541</t>
   </si>
   <si>
-    <t>0018f5659848/0032000e02</t>
-  </si>
-  <si>
     <t>Thiết bị mất cấu hình GPS, không lên đèn nguồn</t>
   </si>
   <si>
@@ -264,10 +261,7 @@
     <t xml:space="preserve">0018f56598d4/ ID mới : WP21120135S00474  </t>
   </si>
   <si>
-    <t>Xử lý phần cứng</t>
-  </si>
-  <si>
-    <t>BT</t>
+    <t>0018f5659848/0032000e02 / ID mới : WP21120135S01883</t>
   </si>
 </sst>
 </file>
@@ -640,6 +634,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -655,32 +673,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,43 +1018,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1105,58 +1099,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1181,23 +1175,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1208,7 +1202,7 @@
         <v>44741</v>
       </c>
       <c r="C6" s="54">
-        <v>44743</v>
+        <v>44757</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
@@ -1221,13 +1215,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
@@ -1249,7 +1243,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="58"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1265,7 +1259,7 @@
         <v>44741</v>
       </c>
       <c r="C7" s="54">
-        <v>44743</v>
+        <v>44757</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
@@ -1278,35 +1272,35 @@
         <v>63</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
+      <c r="O7" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="58"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1329,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="58"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1358,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="58"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1393,7 +1387,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="58"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1416,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="58"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1445,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1482,7 +1476,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="58"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1505,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="58"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1540,7 +1534,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1569,7 +1563,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1932,7 +1926,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2028,7 +2022,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -3285,6 +3279,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3296,13 +3297,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3346,43 +3340,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3427,58 +3421,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3503,23 +3497,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3539,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3576,7 +3570,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3605,7 +3599,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3634,7 +3628,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3663,7 +3657,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3692,7 +3686,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3721,7 +3715,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3752,7 +3746,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3781,7 +3775,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3810,7 +3804,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3839,7 +3833,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5070,13 +5064,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5088,6 +5075,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
